--- a/DesignDoc/API_Design_Generic.xlsx
+++ b/DesignDoc/API_Design_Generic.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\SRG_others\Project\Hotel Guest Loyalty Reward System\Sutapa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{A2BB72B6-78B0-4BC3-B54A-CB3DF6572EC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{592748D2-A6D6-4C56-863F-B581CCEE66C2}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{1A62B366-31B7-4255-AFAD-E75966B13A72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{402F8D4B-70BC-43B1-81DB-D8D1CAEBFBC8}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="20" windowWidth="19180" windowHeight="10060" xr2:uid="{0F2997E8-A61A-4443-88F7-9D5D4928EE80}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{0F2997E8-A61A-4443-88F7-9D5D4928EE80}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="81">
   <si>
     <t>1. Create/Edit/Delete offer for loyalty program</t>
   </si>
@@ -596,6 +596,9 @@
         ],
         "wallet_info": {
           "ada_balance": "1200",
+          "rewards_earned":"800",
+         "rewards_spent:"300",
+          "rewards_balance":"500",
           "transactions": [
             {
               "transaction_id": "1",
@@ -746,14 +749,14 @@
 }</t>
   </si>
   <si>
-    <t>After successful login, the end user needs to create a wallet</t>
+    <t>After successful login, the end user needs to integrate existing wallet</t>
   </si>
   <si>
     <t>createEndUserWallet</t>
   </si>
   <si>
     <t>{
-  "loyalty_end_user_wallet_create_rq": {
+  "loyalty_end_user_wallet_integrate_rq": {
     "header": {
       "user_name": "endUser",
       "product": "lrs",
@@ -762,27 +765,18 @@
     "wallet_info": {
       "user_id": "1",
       "currency_type": "ada",
-      "wallet_name": "cardanoWallet"
+      "wallet_name": "cardanoWallet",
+     "wallet_address": "addr_test1vppvktxxw8eyhwkdf1jzq5xxqpxk8sj9d7pzvntfkng94ycn9mjxq",
     }
   }
 }</t>
   </si>
   <si>
     <t>{
-  "loyalty_end_user_wallet_create_import_rs": {
-    "wallet_info": {
-      "wallet_id": "1",
-      "user_id": "101",
-      "currency": "ada",
-      "wallet_name": "cardanoWallet",
-      "address": "addr_test1vppvktxxw8eyhwkdf1jzq5xxqpxk8sj9d7pzvntfkng94ycn9mjxq",
-      "data": "pioneer squeeze custom tree letter coral merge banner giant porch bundle theory"
-    }
-  }
-}</t>
-  </si>
-  <si>
-    <t>The "data" will be shown only one time in response at the time of wallet creation; backend will not store it.</t>
+  "loyalty_end_user_wallet_integrate_rs": {
+     "status": "success"
+  }
+}</t>
   </si>
 </sst>
 </file>
@@ -1188,7 +1182,7 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -1541,7 +1535,7 @@
       </c>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="1:6" ht="216.75">
+    <row r="25" spans="1:6" ht="245.25">
       <c r="A25" s="2" t="s">
         <v>77</v>
       </c>
@@ -1557,9 +1551,7 @@
       <c r="E25" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="F25" s="2" t="s">
-        <v>81</v>
-      </c>
+      <c r="F25" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
